--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3062.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3062.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.1134623407512561</v>
+        <v>1.607716798782349</v>
       </c>
       <c r="B1">
-        <v>0.09134508821435219</v>
+        <v>2.956317901611328</v>
       </c>
       <c r="C1">
-        <v>0.08035116860090012</v>
+        <v>6.265285491943359</v>
       </c>
       <c r="D1">
-        <v>0.08751816596067373</v>
+        <v>2.12846827507019</v>
       </c>
       <c r="E1">
-        <v>0.1074230439629807</v>
+        <v>0.9476034641265869</v>
       </c>
     </row>
   </sheetData>
